--- a/project/DCR/data/批量导入门店库存成功.xlsx
+++ b/project/DCR/data/批量导入门店库存成功.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Shop ID</t>
   </si>
@@ -25,10 +25,7 @@
     <t>SN002425</t>
   </si>
   <si>
-    <t>356514118470178</t>
-  </si>
-  <si>
-    <t>356514118469998</t>
+    <t>356514118470111</t>
   </si>
 </sst>
 </file>
@@ -1011,13 +1008,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -1035,14 +1032,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
